--- a/biology/Botanique/Melia_azedarach/Melia_azedarach.xlsx
+++ b/biology/Botanique/Melia_azedarach/Melia_azedarach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melia azedarach, le Margousier à feuilles de Frêne, Lilas de Perse ou encore Mélia faux Neem, est une espèce d'arbres à feuillage caduc de la famille des Meliaceae (même famille que l'acajou et le cedrela), originaire d'Inde, du sud de la Chine et d'Australie.
 </t>
@@ -513,21 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cet arbre à tronc droit et à couronne arrondie mesure généralement de 10 à 12 mètres de haut, mais certains sujets atteignent 25 mètres en région favorable[1]. Il a un système racinaire étendu mais peu profond. Il a une faible longévité[Combien ?].
-Son écorce gris-marron, crevassée verticalement, laisse apparaître l'aubier jaune clair.
-Feuilles
-Les feuilles (caduques en zones tempérées et persistantes en régions chaudes) sont alternes à long pétiole avec une longueur de 20 à plus de 60 cm. Elles sont bipennées imparipennées, chaque limbe comportant 2 à 5 paires de pennes pseudo-opposées, et la dernière limbe comportant une foliole terminale[2].
-Les foliolules mesurent 2 à 8 centimètres de long. Elles sont lancéolés, dentées, avec un apex acuminé et une base en coin[2]. Elles sont légèrement pubescentes ou glabres, le dessus vert foncé brillant virant au jaune à l'automne, le dessous plus clair souvent pubescent sur les nervures. Froissées, elles exhalent une forte odeur et ont un goût amer.
-Les jeunes pousses sont tomenteuses.
-Fleurs
-Les inflorescences apparaissent en mai-juin sur les rameaux de l'année en panicules axillaires lâches de 10 à 20 cm de longueur. Les petites fleurs tubulaires hermaphrodites sont rose-violet clair une fois éclose et plus foncée en boutons, de 1 à 2,5 cm de diamètre à 5 pétales étroits. Elles comportent 10 à 12 filets fusionnés formant un tube central. Leur odeur s'approche de celle du lilas[2].
-Les fleurs sont peu attractives pour les abeilles et les papillons mais intéressent parfois certaines espèces de colibris.
-Fruits
-Le fruit est une drupe globuleuse à mince enveloppe charnue sphérique de 1-3 cm de diamètre d'abord vert pomme puis jaune-crème à maturité suspendue sur l'arbre tout l'hiver et persistant jusqu'à la floraison suivante en devenant de plus en plus ridée et presque blanche. Le noyau de la drupe est blanc sale, côtelé dans le sens de la longueur, avec un petit trou au centre apical. Il contient trois à six petites graines brunes ressemblant à des pépins de pomme.
-Ces fruits sont toxiques pour l'homme, voire mortels si consommés en grande quantité[2].
-Les semences sont dispersées par zoochorie, c'est-à-dire par le mouvement des animaux (certains oiseaux, chauve-souris ou mammifères, notamment des cochons sauvages en Nouvelle-Calédonie) qui consomment les fruits.
-</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cet arbre à tronc droit et à couronne arrondie mesure généralement de 10 à 12 mètres de haut, mais certains sujets atteignent 25 mètres en région favorable. Il a un système racinaire étendu mais peu profond. Il a une faible longévité[Combien ?].
+Son écorce gris-marron, crevassée verticalement, laisse apparaître l'aubier jaune clair.</t>
         </is>
       </c>
     </row>
@@ -552,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce se reproduit en partie grâce à ses graines, mais celles-ci ont vraisemblablement une durée de vie courte (de 3 à 4 semaines)[2].
-Elle se reproduit également de manière végétative, en formant des drageons qui lui permettent de se propager en massifs denses[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles (caduques en zones tempérées et persistantes en régions chaudes) sont alternes à long pétiole avec une longueur de 20 à plus de 60 cm. Elles sont bipennées imparipennées, chaque limbe comportant 2 à 5 paires de pennes pseudo-opposées, et la dernière limbe comportant une foliole terminale.
+Les foliolules mesurent 2 à 8 centimètres de long. Elles sont lancéolés, dentées, avec un apex acuminé et une base en coin. Elles sont légèrement pubescentes ou glabres, le dessus vert foncé brillant virant au jaune à l'automne, le dessous plus clair souvent pubescent sur les nervures. Froissées, elles exhalent une forte odeur et ont un goût amer.
+Les jeunes pousses sont tomenteuses.
 </t>
         </is>
       </c>
@@ -584,18 +596,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il pousse à l'état naturel à une altitude de 500 à 2 100 m dans les forêts et clairières en Asie et dans le Pacifique depuis le Népal jusqu'aux Îles Salomon et en Australie tropicale. Il est naturalisé en Iran et Turquie et subspontané dans le Sud des États-Unis et le sud-ouest de l'Afrique. Il semble également naturalisé à Madagascar sur les Hauts-Plateaux où il est appelé « vaondelaka »[réf. nécessaire].
-Caractère envahissant
-Résistante aux insectes, cette espèce a pour particularité d'altérer la chimie des sols où elle prolifère[3], la litière crée par la chute des feuilles de l'arbre causant une alcalinisation du sol[4].
-Aux États-Unis
-L'espèce a été introduite vers 1830 comme plante ornementale aux États-Unis (Caroline du Sud et Géorgie) et largement plantés dans le sud du pays. Aujourd'hui, elle est considérée comme une espèce invasive dans le nord, jusqu'à la Virginie et l'Oklahoma. Mais les pépinières continuent à vendre les arbres, et les graines sont également largement disponibles[réf. nécessaire].
-En Nouvelle-Calédonie
-En Nouvelle-Calédonie, où elle a vraisemblablement été introduite en 1884[3], cette espèce envahit le bord des routes, des clôtures et d'autres zones perturbées. On la trouve également dans des zones plus reculées, comme des prairies d'altitude, des forêts, des pâturages et des zones de bord d'eau[2].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences apparaissent en mai-juin sur les rameaux de l'année en panicules axillaires lâches de 10 à 20 cm de longueur. Les petites fleurs tubulaires hermaphrodites sont rose-violet clair une fois éclose et plus foncée en boutons, de 1 à 2,5 cm de diamètre à 5 pétales étroits. Elles comportent 10 à 12 filets fusionnés formant un tube central. Leur odeur s'approche de celle du lilas.
+Les fleurs sont peu attractives pour les abeilles et les papillons mais intéressent parfois certaines espèces de colibris.
 </t>
         </is>
       </c>
@@ -621,31 +634,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bois
-L'espèce est principalement utilisée pour son bois de moyenne densité dont la couleur varie du brun au rouge foncé. En apparence, il est facilement confondu avec le teck (Tectona grandis).
-Melia azedarach comme les autres membres de la famille des Meliaceae a un bois de haute qualité résistant aux insectes xylophages employé en ébénisterie et pour la confection d'instruments de musique, mais contrairement à de nombreuses autres espèces quasi-éteintes d'acajou elle est sous-utilisée.
-Insecticide
-Les extraits alcooliques ou aqueux de feuilles et-ou de fruits ont divers effets anti-appétants ou toxiques pour la plupart des insectes, tout ordres confondus. [1]
-Toutes les parties de l'arbre sont toxiques en raison de leur teneur en azadirachtine. Les feuilles sont utilisées comme un insecticide naturel[2] souvent associé au stockage d'aliments. La simple présence d'un tapis de branches feuillues de Melia dans une serre constitue un excellent répulsif à insectes. De la même façon, la présence d'un Melia dans une zone permet de réguler naturellement la quantité d'insectes en cas de pullulation.[réf. nécessaire]
-Élevage
-Les baies sont toxiques pour la plupart des animaux mais peuvent être consommées par les chèvres et les moutons[réf. nécessaire][5].
-Agriculture
-Les résidus de la production d'huile provenant des graines (tourteau) peuvent servir d'engrais[6].[réf. nécessaire]
-Reboisement
-Le lilas de Perse, largement planté en Asie comme arbre de temple, est actuellement utilisé en tant qu’arbre de reboisement en Chine, en Inde, en Amérique du Sud et Centrale[réf. nécessaire].
-Ombrage
-Il est utilisé occasionnellement comme arbre d'ombrage pour les plantations de caféier et de bananier[2]. En revanche, son utilité comme arbre d'ombrage dans les zones urbaines est contrebalancée par sa tendance à rejeter de souche et à rendre les trottoirs glissants lors de la chute des fruits[réf. nécessaire].
-Artisanat
-Les graines, pourvues d'un trou, étaient utilisées pour en faire des chapelets et d'autres produits nécessitant des perles. C'est d'ailleurs pourquoi cet arbre est parfois appelé « arbre à chapelets »[réf. nécessaire].
-Médecine et hygiène
-L'écorce et les racines contiennent un triterpène (gédunène) utilisé comme anthelminthique (en veillant à ne pas surdoser)[réf. nécessaire].
-En Afrique, les tiges sont utilisées comme brosse à dents[réf. nécessaire].
-L'huile qui est tirée de la graine sert à la fabrication de savons, de cires et de lubrifiants, aussi utilisée comme combustible pour l'éclairage et le chauffage[réf. nécessaire].
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une drupe globuleuse à mince enveloppe charnue sphérique de 1-3 cm de diamètre d'abord vert pomme puis jaune-crème à maturité suspendue sur l'arbre tout l'hiver et persistant jusqu'à la floraison suivante en devenant de plus en plus ridée et presque blanche. Le noyau de la drupe est blanc sale, côtelé dans le sens de la longueur, avec un petit trou au centre apical. Il contient trois à six petites graines brunes ressemblant à des pépins de pomme.
+Ces fruits sont toxiques pour l'homme, voire mortels si consommés en grande quantité.
+Les semences sont dispersées par zoochorie, c'est-à-dire par le mouvement des animaux (certains oiseaux, chauve-souris ou mammifères, notamment des cochons sauvages en Nouvelle-Calédonie) qui consomment les fruits.
 </t>
         </is>
       </c>
@@ -671,15 +673,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre à croissance rapide (12 cm de diamètre et 10 m de hauteur en 6 ans en région favorable humide) préférant les sols humides mais très tolérant à la sécheresse. Il ne pousse qu'en plein soleil et ne supporte pas le couvert d'autres arbres. Il pousse sans problème en tous types de sol même très pauvres. Il supporte bien la taille. La ramure est fragile mais l'arbre repart facilement du pied en cas de casse.
-Il est très résistant aux insectes et autres agents pathogènes.
-Bien qu'originaire de régions chaudes, il peut être planté jusqu'en zone USDA 8. Les sujets bien lignifiés même jeunes peuvent résister au froid humide jusqu'à -15 °C. Comme référence, on peut citer les exemplaires plantés à la faculté de pharmacie d'Angers, au jardin botanique de Strasbourg, au jardin Lecoq à Clermont-Ferrand[7].
-Il est multiplié par semis de graines fraîches ou bouture semi-aoûté. Les semis peuvent fleurir dès la première année et produire des fruits dès 3 ou 4 ans[8].
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se reproduit en partie grâce à ses graines, mais celles-ci ont vraisemblablement une durée de vie courte (de 3 à 4 semaines).
+Elle se reproduit également de manière végétative, en formant des drageons qui lui permettent de se propager en massifs denses.
 </t>
         </is>
       </c>
@@ -705,13 +707,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Toxicité</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ingestion de moins d'une dizaine de fruits peut causer une intoxication mortelle pour la plupart des mammifères dont les humains[réf. nécessaire]. Les premiers symptômes d'intoxication sont perte d'appétit, vomissements sanguins (hématémèse), constipation ou diarrhée, selles sanglantes, douleurs à l'estomac, congestion pulmonaire, arrêt cardiaque et apparaissent quelques heures après l'ingestion. Le décès survient après environ 24 heures. La quantité nécessaire à une intoxication mortelle est rarement atteinte car bien qu'ayant un goût légèrement sucré, ils ont une odeur peu attrayante[réf. souhaitée].
-Cette relative toxicité peut provoquer une diminution de la biodiversité dans les lieux où il pousse en abondance[réf. souhaitée].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse à l'état naturel à une altitude de 500 à 2 100 m dans les forêts et clairières en Asie et dans le Pacifique depuis le Népal jusqu'aux Îles Salomon et en Australie tropicale. Il est naturalisé en Iran et Turquie et subspontané dans le Sud des États-Unis et le sud-ouest de l'Afrique. Il semble également naturalisé à Madagascar sur les Hauts-Plateaux où il est appelé « vaondelaka »[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -737,10 +740,501 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Résistante aux insectes, cette espèce a pour particularité d'altérer la chimie des sols où elle prolifère, la litière crée par la chute des feuilles de l'arbre causant une alcalinisation du sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été introduite vers 1830 comme plante ornementale aux États-Unis (Caroline du Sud et Géorgie) et largement plantés dans le sud du pays. Aujourd'hui, elle est considérée comme une espèce invasive dans le nord, jusqu'à la Virginie et l'Oklahoma. Mais les pépinières continuent à vendre les arbres, et les graines sont également largement disponibles[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>En Nouvelle-Calédonie</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, où elle a vraisemblablement été introduite en 1884, cette espèce envahit le bord des routes, des clôtures et d'autres zones perturbées. On la trouve également dans des zones plus reculées, comme des prairies d'altitude, des forêts, des pâturages et des zones de bord d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bois</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est principalement utilisée pour son bois de moyenne densité dont la couleur varie du brun au rouge foncé. En apparence, il est facilement confondu avec le teck (Tectona grandis).
+Melia azedarach comme les autres membres de la famille des Meliaceae a un bois de haute qualité résistant aux insectes xylophages employé en ébénisterie et pour la confection d'instruments de musique, mais contrairement à de nombreuses autres espèces quasi-éteintes d'acajou elle est sous-utilisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Insecticide</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les extraits alcooliques ou aqueux de feuilles et-ou de fruits ont divers effets anti-appétants ou toxiques pour la plupart des insectes, tout ordres confondus. 
+Toutes les parties de l'arbre sont toxiques en raison de leur teneur en azadirachtine. Les feuilles sont utilisées comme un insecticide naturel souvent associé au stockage d'aliments. La simple présence d'un tapis de branches feuillues de Melia dans une serre constitue un excellent répulsif à insectes. De la même façon, la présence d'un Melia dans une zone permet de réguler naturellement la quantité d'insectes en cas de pullulation.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baies sont toxiques pour la plupart des animaux mais peuvent être consommées par les chèvres et les moutons[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les résidus de la production d'huile provenant des graines (tourteau) peuvent servir d'engrais.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Reboisement</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lilas de Perse, largement planté en Asie comme arbre de temple, est actuellement utilisé en tant qu’arbre de reboisement en Chine, en Inde, en Amérique du Sud et Centrale[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ombrage</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé occasionnellement comme arbre d'ombrage pour les plantations de caféier et de bananier. En revanche, son utilité comme arbre d'ombrage dans les zones urbaines est contrebalancée par sa tendance à rejeter de souche et à rendre les trottoirs glissants lors de la chute des fruits[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Artisanat</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines, pourvues d'un trou, étaient utilisées pour en faire des chapelets et d'autres produits nécessitant des perles. C'est d'ailleurs pourquoi cet arbre est parfois appelé « arbre à chapelets »[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Médecine et hygiène</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce et les racines contiennent un triterpène (gédunène) utilisé comme anthelminthique (en veillant à ne pas surdoser)[réf. nécessaire].
+En Afrique, les tiges sont utilisées comme brosse à dents[réf. nécessaire].
+L'huile qui est tirée de la graine sert à la fabrication de savons, de cires et de lubrifiants, aussi utilisée comme combustible pour l'éclairage et le chauffage[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre à croissance rapide (12 cm de diamètre et 10 m de hauteur en 6 ans en région favorable humide) préférant les sols humides mais très tolérant à la sécheresse. Il ne pousse qu'en plein soleil et ne supporte pas le couvert d'autres arbres. Il pousse sans problème en tous types de sol même très pauvres. Il supporte bien la taille. La ramure est fragile mais l'arbre repart facilement du pied en cas de casse.
+Il est très résistant aux insectes et autres agents pathogènes.
+Bien qu'originaire de régions chaudes, il peut être planté jusqu'en zone USDA 8. Les sujets bien lignifiés même jeunes peuvent résister au froid humide jusqu'à -15 °C. Comme référence, on peut citer les exemplaires plantés à la faculté de pharmacie d'Angers, au jardin botanique de Strasbourg, au jardin Lecoq à Clermont-Ferrand.
+Il est multiplié par semis de graines fraîches ou bouture semi-aoûté. Les semis peuvent fleurir dès la première année et produire des fruits dès 3 ou 4 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ingestion de moins d'une dizaine de fruits peut causer une intoxication mortelle pour la plupart des mammifères dont les humains[réf. nécessaire]. Les premiers symptômes d'intoxication sont perte d'appétit, vomissements sanguins (hématémèse), constipation ou diarrhée, selles sanglantes, douleurs à l'estomac, congestion pulmonaire, arrêt cardiaque et apparaissent quelques heures après l'ingestion. Le décès survient après environ 24 heures. La quantité nécessaire à une intoxication mortelle est rarement atteinte car bien qu'ayant un goût légèrement sucré, ils ont une odeur peu attrayante[réf. souhaitée].
+Cette relative toxicité peut provoquer une diminution de la biodiversité dans les lieux où il pousse en abondance[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'Caroline' - à troncs multiples et cime en dôme subglobuleux. Feuilles vert foncé
  'Flash Dancer' - Feuilles très fortement panachées de blanc, des rameaux entiers peuvent être sans chlorophylles
@@ -754,33 +1248,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Melia_azedarach</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Synonymes et étymologie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est également appelée lilas de Perse, lilas des Indes, arbre à chapelets, arbre saint,
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>L'espèce est également appelée lilas de Perse, lilas des Indes, arbre à chapelets, arbre saint,
 mélia faux neem, margousier à feuilles de frêne, « Ghoda neem » (Neem des chevaux) en bengali ou « Vilayati neem » (Neem étranger) dans la région du Bundelkhand (centre de l'Inde)[réf. nécessaire]. On la confond souvent avec le neem (Azadirachta indica) mais ses feuilles ne sont pas aussi amères que le neem. A Madagascar où il est commun sur les Hauts plateaux, il est appelé « voandelaka ».
 Le nom de genre "Melia" vient du terme grec signifiant "frêne" pour la ressemblance du feuillage et des bourgeons sombres. Le nom spécifique, « azedarach », provient de la contraction du nom persan de cette espèce, « azad-dhirakt » signifiant « arbre noble ».
 Anciennement l'espèce portait également les noms scientifiques suivants :
@@ -806,9 +1302,43 @@
 Melia robusta Roxb. ex G.Don
 Melia sambucina Blume
 Melia superba Roxb.
-Melia toosendan Siebold &amp; Zucc.
-Confusion possible
-L'arbre porte de nombreux noms vernaculaires pouvant faire confusion avec Azadirachta indica dans beaucoup de langues. Par exemple le nom français margousier est utilisé pour les deux espèces. Concernant les noms scientifiques, une certaine confusion existe également dans les dénominations jusqu'à un synonyme de Azadirachta indica qui est Melia azadirachta ou encore avec Antelaea javanica répertorié comme synonyme pour les deux.
+Melia toosendan Siebold &amp; Zucc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melia_azedarach</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Synonymes et étymologie</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Confusion possible</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre porte de nombreux noms vernaculaires pouvant faire confusion avec Azadirachta indica dans beaucoup de langues. Par exemple le nom français margousier est utilisé pour les deux espèces. Concernant les noms scientifiques, une certaine confusion existe également dans les dénominations jusqu'à un synonyme de Azadirachta indica qui est Melia azadirachta ou encore avec Antelaea javanica répertorié comme synonyme pour les deux.
 Le Melia azedarach est parfois confondu avec le margousier (Azadirachta indica) ressemblant mais nettement moins rustique, et il peut l'être aussi avec un hybride de lilas, Syringa ×persica, également appelé lilas de Perse.
 </t>
         </is>
